--- a/指導案.xlsx
+++ b/指導案.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0adc0eb42b50cdd0/デスクトップ/アプリ開発/special_education_app_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9955682B-47D2-4600-9CC5-68EEA1A5836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{9955682B-47D2-4600-9CC5-68EEA1A5836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDDA816E-BC6D-40F2-98CA-C2A7573E9911}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>学習指導案</t>
     <rPh sb="0" eb="2">
@@ -81,16 +81,6 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間目</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -237,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -444,49 +434,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -684,28 +637,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -715,187 +656,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,6 +833,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1212,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:N7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1236,626 +1160,624 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="55"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="58" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="27"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A7" s="28"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.65">
+      <c r="A8" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.65">
+      <c r="A9" s="52"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+    </row>
+    <row r="11" spans="1:14" ht="23.6" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.65">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="28"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A8" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
-    </row>
-    <row r="10" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:14" ht="23.6" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="8" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A13" s="9"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="39"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A14" s="10"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="40"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A15" s="10"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="40"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A16" s="10"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="40"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A17" s="10"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="40"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A18" s="10"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="40"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A19" s="10"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="40"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A20" s="10"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="40"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="40"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A22" s="10"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="40"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A23" s="10"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="40"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A24" s="10"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="40"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A25" s="10"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="40"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A26" s="11"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="40"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A27" s="10"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="40"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A28" s="10"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="40"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="40"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A30" s="10"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="40"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A31" s="10"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="40"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A32" s="10"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="41"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="43"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.65">
+      <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="34"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A34" s="10"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="36"/>
-    </row>
-    <row r="35" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="38"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="38"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.65">
+      <c r="A35" s="6"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="40"/>
+    </row>
+    <row r="36" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A36" s="8"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C5:N7"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B26:J26"/>
+  <mergeCells count="35">
+    <mergeCell ref="B31:J33"/>
+    <mergeCell ref="K13:M15"/>
+    <mergeCell ref="K16:M18"/>
+    <mergeCell ref="K19:M21"/>
+    <mergeCell ref="K22:M24"/>
+    <mergeCell ref="K25:M27"/>
+    <mergeCell ref="K28:M30"/>
+    <mergeCell ref="K31:M33"/>
+    <mergeCell ref="B34:N36"/>
+    <mergeCell ref="N13:N33"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="C4:N4"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="A8:B10"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="B33:N35"/>
-    <mergeCell ref="N13:N32"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="B13:J15"/>
     <mergeCell ref="A5:B7"/>
     <mergeCell ref="C8:N10"/>
-    <mergeCell ref="K30:M30"/>
     <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B16:J18"/>
+    <mergeCell ref="B19:J21"/>
+    <mergeCell ref="B22:J24"/>
+    <mergeCell ref="B25:J27"/>
+    <mergeCell ref="B28:J30"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/指導案.xlsx
+++ b/指導案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0adc0eb42b50cdd0/デスクトップ/アプリ開発/special_education_app_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{9955682B-47D2-4600-9CC5-68EEA1A5836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDDA816E-BC6D-40F2-98CA-C2A7573E9911}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{9955682B-47D2-4600-9CC5-68EEA1A5836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD2F023-1FA5-4C5B-8FE0-E08A0871D105}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -637,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,6 +684,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1136,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="K25" sqref="K25:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1160,127 +1166,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="57"/>
       <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="28"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -1292,11 +1298,11 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="29"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A9" s="52"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1308,23 +1314,23 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="30"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="23.6" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A11" s="2" t="s">
@@ -1335,22 +1341,22 @@
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="34" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
       <c r="N12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1369,390 +1375,368 @@
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="29"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A14" s="6"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="15"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="59"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="30"/>
+      <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A15" s="6"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="15"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="59"/>
+      <c r="L15" s="61"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="30"/>
+      <c r="N15" s="32"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A16" s="6"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="30"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="15"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="59"/>
+      <c r="L17" s="61"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="30"/>
+      <c r="N17" s="32"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A18" s="6"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="15"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="59"/>
+      <c r="L18" s="61"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="30"/>
+      <c r="N18" s="32"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A19" s="6"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="30"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="32"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A20" s="6"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="15"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="59"/>
+      <c r="L20" s="61"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="30"/>
+      <c r="N20" s="32"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A21" s="6"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="15"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="59"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="30"/>
+      <c r="N21" s="32"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A22" s="6"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="30"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="32"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A23" s="6"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
       <c r="J23" s="15"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="59"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="30"/>
+      <c r="N23" s="32"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A24" s="6"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
       <c r="J24" s="15"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="59"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="30"/>
+      <c r="N24" s="32"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A25" s="6"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="30"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="32"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="15"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="59"/>
+      <c r="L26" s="61"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="30"/>
+      <c r="N26" s="32"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A27" s="6"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="15"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="59"/>
+      <c r="L27" s="61"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="30"/>
+      <c r="N27" s="32"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A28" s="6"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="30"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="32"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A29" s="6"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="15"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="59"/>
+      <c r="L29" s="61"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="30"/>
+      <c r="N29" s="32"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A30" s="6"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="15"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="59"/>
+      <c r="L30" s="61"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="30"/>
+      <c r="N30" s="32"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A31" s="6"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="30"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="32"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A32" s="6"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="30"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="45"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A33" s="6"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="43"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A34" s="5" t="s">
+      <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="38"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A35" s="6"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="40"/>
-    </row>
-    <row r="36" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="8"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="42"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.65">
+      <c r="A34" s="6"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+    </row>
+    <row r="35" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A35" s="8"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B31:J33"/>
-    <mergeCell ref="K13:M15"/>
-    <mergeCell ref="K16:M18"/>
-    <mergeCell ref="K19:M21"/>
-    <mergeCell ref="K22:M24"/>
-    <mergeCell ref="K25:M27"/>
-    <mergeCell ref="K28:M30"/>
-    <mergeCell ref="K31:M33"/>
-    <mergeCell ref="B34:N36"/>
-    <mergeCell ref="N13:N33"/>
+  <mergeCells count="41">
+    <mergeCell ref="B15:J16"/>
+    <mergeCell ref="B13:J14"/>
+    <mergeCell ref="B33:N35"/>
+    <mergeCell ref="N13:N32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -1766,18 +1750,30 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="A8:B10"/>
-    <mergeCell ref="B13:J15"/>
+    <mergeCell ref="B27:J28"/>
+    <mergeCell ref="B29:J30"/>
     <mergeCell ref="A5:B7"/>
     <mergeCell ref="C8:N10"/>
     <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B16:J18"/>
-    <mergeCell ref="B19:J21"/>
-    <mergeCell ref="B22:J24"/>
-    <mergeCell ref="B25:J27"/>
-    <mergeCell ref="B28:J30"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="C6:N6"/>
     <mergeCell ref="C7:N7"/>
+    <mergeCell ref="B31:J32"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="K25:M26"/>
+    <mergeCell ref="K27:M28"/>
+    <mergeCell ref="K29:M30"/>
+    <mergeCell ref="K31:M32"/>
+    <mergeCell ref="B17:J18"/>
+    <mergeCell ref="B19:J20"/>
+    <mergeCell ref="B21:J22"/>
+    <mergeCell ref="B23:J24"/>
+    <mergeCell ref="B25:J26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/指導案.xlsx
+++ b/指導案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0adc0eb42b50cdd0/デスクトップ/アプリ開発/special_education_app_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{9955682B-47D2-4600-9CC5-68EEA1A5836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD2F023-1FA5-4C5B-8FE0-E08A0871D105}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{9955682B-47D2-4600-9CC5-68EEA1A5836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEF0345D-94BA-43E8-B730-C75B6F84159D}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -463,17 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -610,23 +599,86 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -637,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,167 +714,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,6 +894,94 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 角を丸めた四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB66324-865A-4017-9151-237FA7F22E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8474528" y="3243943"/>
+          <a:ext cx="4403272" cy="2144486"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70030"/>
+            <a:gd name="adj2" fmla="val 18084"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>書きだしの状況により行やセルを広げて活用ください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1144,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1166,171 +1309,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="50"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="55" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
       <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="29"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="24"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="30"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="27"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="31"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A9" s="54"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="32"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
     </row>
     <row r="11" spans="1:14" ht="23.6" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A11" s="2" t="s">
@@ -1341,22 +1484,22 @@
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="36" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="45"/>
       <c r="N12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1375,364 +1518,391 @@
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="31"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A14" s="6"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="32"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="32"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A16" s="6"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="32"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A17" s="6"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="32"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="32"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="32"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="32"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="32"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="32"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="32"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="32"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="32"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="32"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A27" s="6"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="32"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A28" s="6"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="32"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A29" s="6"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="32"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A30" s="6"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="32"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A31" s="6"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="32"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A32" s="6"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="45"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="16"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A34" s="6"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="42"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="8"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="44"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="43">
+    <mergeCell ref="B31:J32"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="K25:M26"/>
+    <mergeCell ref="K27:M28"/>
+    <mergeCell ref="K29:M30"/>
+    <mergeCell ref="K31:M32"/>
+    <mergeCell ref="B17:J18"/>
+    <mergeCell ref="B19:J20"/>
+    <mergeCell ref="B21:J22"/>
+    <mergeCell ref="B23:J24"/>
+    <mergeCell ref="B25:J26"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="B27:J28"/>
+    <mergeCell ref="B29:J30"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C10:N10"/>
     <mergeCell ref="B15:J16"/>
     <mergeCell ref="B13:J14"/>
     <mergeCell ref="B33:N35"/>
@@ -1749,35 +1919,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="B12:J12"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="B27:J28"/>
-    <mergeCell ref="B29:J30"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C8:N10"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="B31:J32"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="K15:M16"/>
-    <mergeCell ref="K17:M18"/>
-    <mergeCell ref="K19:M20"/>
-    <mergeCell ref="K21:M22"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="K25:M26"/>
-    <mergeCell ref="K27:M28"/>
-    <mergeCell ref="K29:M30"/>
-    <mergeCell ref="K31:M32"/>
-    <mergeCell ref="B17:J18"/>
-    <mergeCell ref="B19:J20"/>
-    <mergeCell ref="B21:J22"/>
-    <mergeCell ref="B23:J24"/>
-    <mergeCell ref="B25:J26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/指導案.xlsx
+++ b/指導案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0adc0eb42b50cdd0/デスクトップ/アプリ開発/special_education_app_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{9955682B-47D2-4600-9CC5-68EEA1A5836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEF0345D-94BA-43E8-B730-C75B6F84159D}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{9955682B-47D2-4600-9CC5-68EEA1A5836C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2BE2418-346A-4FEC-A06B-52AE3CBB6387}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -610,43 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -677,6 +640,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -689,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +691,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,6 +709,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,6 +727,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -786,98 +835,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,7 +1265,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="C9" sqref="C9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1309,171 +1286,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="28"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="33" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="42"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="50"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A9" s="32"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
     </row>
     <row r="11" spans="1:14" ht="23.6" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A11" s="2" t="s">
@@ -1484,398 +1461,425 @@
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="37" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="45"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
       <c r="N12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="21"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="46"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="22"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="22"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="22"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="22"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="47"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="22"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="47"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="22"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="22"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="22"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A23" s="6"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="22"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="22"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="22"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="22"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="22"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="22"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="22"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="47"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="22"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="47"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A31" s="6"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="22"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="47"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A32" s="6"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="23"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="48"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="16"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A34" s="61"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="18"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="43"/>
     </row>
     <row r="35" spans="1:14" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="62"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B33:N35"/>
+    <mergeCell ref="N13:N32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="B27:J28"/>
+    <mergeCell ref="B29:J30"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="B15:J16"/>
+    <mergeCell ref="B13:J14"/>
     <mergeCell ref="B31:J32"/>
     <mergeCell ref="K13:M14"/>
     <mergeCell ref="K15:M16"/>
@@ -1892,33 +1896,6 @@
     <mergeCell ref="B21:J22"/>
     <mergeCell ref="B23:J24"/>
     <mergeCell ref="B25:J26"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="B27:J28"/>
-    <mergeCell ref="B29:J30"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="B15:J16"/>
-    <mergeCell ref="B13:J14"/>
-    <mergeCell ref="B33:N35"/>
-    <mergeCell ref="N13:N32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="B12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
